--- a/qatestlab/Functional_Registration_MerkulovAA.xlsx
+++ b/qatestlab/Functional_Registration_MerkulovAA.xlsx
@@ -865,7 +865,7 @@
   <dimension ref="A1:H1032"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
